--- a/test_upload.xlsx
+++ b/test_upload.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naveenkumara\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zNaveen\Learnings\UI_basics\UI-Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet naveen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>dsfemgrege</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>lkwemerg</t>
+  </si>
+  <si>
+    <t>esting</t>
+  </si>
+  <si>
+    <t>gitb</t>
+  </si>
+  <si>
+    <t>senflo</t>
   </si>
 </sst>
 </file>
@@ -373,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F9:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -426,4 +436,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G12:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>